--- a/Code/Results/Cases/Case_2_149/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_149/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13.78857900987373</v>
+        <v>19.6276857286398</v>
       </c>
       <c r="C2">
-        <v>6.729143464859996</v>
+        <v>4.378135040345265</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>3.88223053338423</v>
+        <v>9.527082579122737</v>
       </c>
       <c r="F2">
-        <v>66.90609064941128</v>
+        <v>63.66074658758853</v>
       </c>
       <c r="G2">
-        <v>2.186701415270364</v>
+        <v>3.808216604563695</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,13 +445,13 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>12.07370986423814</v>
+        <v>13.23575416922598</v>
       </c>
       <c r="K2">
-        <v>11.66774114134318</v>
+        <v>16.39020577852813</v>
       </c>
       <c r="L2">
-        <v>3.814667508646964</v>
+        <v>9.658448768736228</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>13.22041201872484</v>
+        <v>19.64289180060902</v>
       </c>
       <c r="C3">
-        <v>6.264030447269563</v>
+        <v>4.154497746155063</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>3.630626789884829</v>
+        <v>9.593568983954647</v>
       </c>
       <c r="F3">
-        <v>63.77195896773553</v>
+        <v>62.74380268717346</v>
       </c>
       <c r="G3">
-        <v>2.197756440048506</v>
+        <v>3.811867872428851</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,13 +492,13 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>11.71432237328711</v>
+        <v>13.12492447764492</v>
       </c>
       <c r="K3">
-        <v>11.21577004833711</v>
+        <v>16.39070802306887</v>
       </c>
       <c r="L3">
-        <v>3.622341268711318</v>
+        <v>9.747725960464383</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12.87788268361867</v>
+        <v>19.65911656871898</v>
       </c>
       <c r="C4">
-        <v>5.964724442849213</v>
+        <v>4.010131143323904</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>3.624209554067779</v>
+        <v>9.637186216941181</v>
       </c>
       <c r="F4">
-        <v>61.80582244338153</v>
+        <v>62.17729262793009</v>
       </c>
       <c r="G4">
-        <v>2.204684430404042</v>
+        <v>3.814224011442</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,13 +539,13 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>11.49096708078187</v>
+        <v>13.05558538531232</v>
       </c>
       <c r="K4">
-        <v>10.9431116857235</v>
+        <v>16.39610567403536</v>
       </c>
       <c r="L4">
-        <v>3.501691805411277</v>
+        <v>9.805351834431047</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>12.74005706672557</v>
+        <v>19.66745736894361</v>
       </c>
       <c r="C5">
-        <v>5.839246912747615</v>
+        <v>3.949557903537658</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>3.623853436315458</v>
+        <v>9.6556623688823</v>
       </c>
       <c r="F5">
-        <v>60.99455083609986</v>
+        <v>61.94573438778102</v>
       </c>
       <c r="G5">
-        <v>2.20754580299722</v>
+        <v>3.815212999188835</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,13 +586,13 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>11.39927222224878</v>
+        <v>13.02701201964488</v>
       </c>
       <c r="K5">
-        <v>10.83333749354476</v>
+        <v>16.39958427808953</v>
       </c>
       <c r="L5">
-        <v>3.451826053656056</v>
+        <v>9.829544300636321</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>12.71728266474738</v>
+        <v>19.66894667267013</v>
       </c>
       <c r="C6">
-        <v>5.818198062629255</v>
+        <v>3.939395531159591</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>3.623926787501878</v>
+        <v>9.658772680924523</v>
       </c>
       <c r="F6">
-        <v>60.8592483774059</v>
+        <v>61.90724727127409</v>
       </c>
       <c r="G6">
-        <v>2.208023317336185</v>
+        <v>3.815378965177891</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,13 +633,13 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>11.3840057275806</v>
+        <v>13.02224848641047</v>
       </c>
       <c r="K6">
-        <v>10.81519394022701</v>
+        <v>16.40023910791102</v>
       </c>
       <c r="L6">
-        <v>3.443502039243476</v>
+        <v>9.83360437939842</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>12.87601656603094</v>
+        <v>19.65922205968581</v>
       </c>
       <c r="C7">
-        <v>5.963046482714213</v>
+        <v>4.009321242252594</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>3.624195782717305</v>
+        <v>9.63743255248885</v>
       </c>
       <c r="F7">
-        <v>61.79492136670299</v>
+        <v>62.17417235173713</v>
       </c>
       <c r="G7">
-        <v>2.204722861680317</v>
+        <v>3.814237232347623</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,13 +680,13 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>11.48973318097447</v>
+        <v>13.05520130954516</v>
       </c>
       <c r="K7">
-        <v>10.94162565827526</v>
+        <v>16.39614741072797</v>
       </c>
       <c r="L7">
-        <v>3.501022204289343</v>
+        <v>9.805675225983444</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>13.59145465025429</v>
+        <v>19.63149768951435</v>
       </c>
       <c r="C8">
-        <v>6.571584844881954</v>
+        <v>4.302505179689088</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>3.789640151455699</v>
+        <v>9.549426589482289</v>
       </c>
       <c r="F8">
-        <v>65.8343340052856</v>
+        <v>63.34541890312283</v>
       </c>
       <c r="G8">
-        <v>2.1904859303269</v>
+        <v>3.80945191876569</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,13 +727,13 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>11.95034884906611</v>
+        <v>13.19781189568867</v>
       </c>
       <c r="K8">
-        <v>11.51095853834333</v>
+        <v>16.38932251437045</v>
       </c>
       <c r="L8">
-        <v>3.748849430071548</v>
+        <v>9.688650297579361</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>15.03871518291933</v>
+        <v>19.63186532613679</v>
       </c>
       <c r="C9">
-        <v>7.658948767347086</v>
+        <v>4.820422973466304</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>4.437441913671808</v>
+        <v>9.399060133361917</v>
       </c>
       <c r="F9">
-        <v>73.41241568500135</v>
+        <v>65.60663268066054</v>
       </c>
       <c r="G9">
-        <v>2.163533700898608</v>
+        <v>3.800969219412329</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,13 +774,13 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>12.83280595280382</v>
+        <v>13.46693700925602</v>
       </c>
       <c r="K9">
-        <v>12.66185182721885</v>
+        <v>16.41631216362402</v>
       </c>
       <c r="L9">
-        <v>4.217338341112352</v>
+        <v>9.481317479484261</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>16.12368108443278</v>
+        <v>19.6655333703286</v>
       </c>
       <c r="C10">
-        <v>8.39786973927856</v>
+        <v>5.165103295453145</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>4.889721581182822</v>
+        <v>9.302187641097161</v>
       </c>
       <c r="F10">
-        <v>78.76662967795212</v>
+        <v>67.23601401097842</v>
       </c>
       <c r="G10">
-        <v>2.144092870437499</v>
+        <v>3.795279137910111</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,13 +821,13 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>13.4701596768304</v>
+        <v>13.65784337454304</v>
       </c>
       <c r="K10">
-        <v>13.53711053825512</v>
+        <v>16.4606850580003</v>
       </c>
       <c r="L10">
-        <v>4.555282182931859</v>
+        <v>9.342302137310316</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>16.62168998394344</v>
+        <v>19.68808091465969</v>
       </c>
       <c r="C11">
-        <v>8.722209844831687</v>
+        <v>5.313977128199861</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>5.09143430122884</v>
+        <v>9.26108591880344</v>
       </c>
       <c r="F11">
-        <v>81.15851502654627</v>
+        <v>67.96823683775784</v>
       </c>
       <c r="G11">
-        <v>2.135268100311395</v>
+        <v>3.792806736634379</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,13 +868,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>13.75839602268006</v>
+        <v>13.74312723301751</v>
       </c>
       <c r="K11">
-        <v>14.09416613871121</v>
+        <v>16.48616574266204</v>
       </c>
       <c r="L11">
-        <v>4.708808331462154</v>
+        <v>9.281909790005262</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>16.81095403650078</v>
+        <v>19.69765499463402</v>
       </c>
       <c r="C12">
-        <v>8.843448366945465</v>
+        <v>5.36920371831941</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>5.167344086190623</v>
+        <v>9.245949703964179</v>
       </c>
       <c r="F12">
-        <v>82.05838817755318</v>
+        <v>68.24404888227681</v>
       </c>
       <c r="G12">
-        <v>2.131923410853228</v>
+        <v>3.79188706959654</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,13 +915,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>13.86737825804334</v>
+        <v>13.77519044755929</v>
       </c>
       <c r="K12">
-        <v>14.30272094136915</v>
+        <v>16.49657144091855</v>
       </c>
       <c r="L12">
-        <v>4.767026114292534</v>
+        <v>9.259446895803833</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>16.7701612420551</v>
+        <v>19.69554705698031</v>
       </c>
       <c r="C13">
-        <v>8.817405850652825</v>
+        <v>5.357360896267211</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>5.151014821321955</v>
+        <v>9.249190491648655</v>
       </c>
       <c r="F13">
-        <v>81.86483746272289</v>
+        <v>68.18471564557824</v>
       </c>
       <c r="G13">
-        <v>2.132643979121438</v>
+        <v>3.792084400792248</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,13 +962,13 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>13.84391292634788</v>
+        <v>13.76829549498865</v>
       </c>
       <c r="K13">
-        <v>14.25790775750349</v>
+        <v>16.49429681837564</v>
       </c>
       <c r="L13">
-        <v>4.754482354261924</v>
+        <v>9.264266654916348</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>16.63724682963807</v>
+        <v>19.68884784910206</v>
       </c>
       <c r="C14">
-        <v>8.732215205342694</v>
+        <v>5.318543719702393</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>5.097688297786195</v>
+        <v>9.25983206374519</v>
       </c>
       <c r="F14">
-        <v>81.23266299914683</v>
+        <v>67.99095838154913</v>
       </c>
       <c r="G14">
-        <v>2.134993024913172</v>
+        <v>3.792730743459069</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,13 +1009,13 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>13.76736487453239</v>
+        <v>13.74576978410549</v>
       </c>
       <c r="K14">
-        <v>14.11137072821259</v>
+        <v>16.48700669064821</v>
       </c>
       <c r="L14">
-        <v>4.713595636599324</v>
+        <v>9.280053626576171</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>16.55592340154271</v>
+        <v>19.68487913922442</v>
       </c>
       <c r="C15">
-        <v>8.67983111328528</v>
+        <v>5.294617247209209</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>5.064965850891328</v>
+        <v>9.266406136204841</v>
       </c>
       <c r="F15">
-        <v>80.84468725018381</v>
+        <v>67.87208069699646</v>
       </c>
       <c r="G15">
-        <v>2.136431318723545</v>
+        <v>3.793128802661481</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,13 +1056,13 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>13.72045795446454</v>
+        <v>13.73194170910407</v>
       </c>
       <c r="K15">
-        <v>14.02130768756942</v>
+        <v>16.48263966623682</v>
       </c>
       <c r="L15">
-        <v>4.688565401679896</v>
+        <v>9.289776437813229</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>16.09122670571075</v>
+        <v>19.66420503733618</v>
       </c>
       <c r="C16">
-        <v>8.376445382177293</v>
+        <v>5.155213750129187</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>4.876466729743874</v>
+        <v>9.304933554679694</v>
       </c>
       <c r="F16">
-        <v>78.60946467062082</v>
+        <v>67.18796576894087</v>
       </c>
       <c r="G16">
-        <v>2.144669504486197</v>
+        <v>3.79544304090858</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,13 +1103,13 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>13.45129473168694</v>
+        <v>13.65223782715024</v>
       </c>
       <c r="K16">
-        <v>13.50035977516187</v>
+        <v>16.45912600722216</v>
       </c>
       <c r="L16">
-        <v>4.545253831866848</v>
+        <v>9.346305945524778</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>15.80730142744635</v>
+        <v>19.65337189015269</v>
       </c>
       <c r="C17">
-        <v>8.187382982247646</v>
+        <v>5.067657465508748</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>4.7598665318681</v>
+        <v>9.32932966646058</v>
       </c>
       <c r="F17">
-        <v>77.2272535823904</v>
+        <v>66.76585638095338</v>
       </c>
       <c r="G17">
-        <v>2.14972442581981</v>
+        <v>3.796892395088126</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,13 +1150,13 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>13.28578544924827</v>
+        <v>13.60293702084276</v>
       </c>
       <c r="K17">
-        <v>13.27314339000128</v>
+        <v>16.44605432545878</v>
       </c>
       <c r="L17">
-        <v>4.457357886115503</v>
+        <v>9.381711914920116</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>15.64440873219756</v>
+        <v>19.64782197304162</v>
       </c>
       <c r="C18">
-        <v>8.077521036042507</v>
+        <v>5.016552043521306</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>4.692414618475029</v>
+        <v>9.343640743156943</v>
       </c>
       <c r="F18">
-        <v>76.42808665206036</v>
+        <v>66.52223388223604</v>
       </c>
       <c r="G18">
-        <v>2.15263404897389</v>
+        <v>3.797736954545504</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,13 +1197,13 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>13.19042312669468</v>
+        <v>13.57443407446567</v>
       </c>
       <c r="K18">
-        <v>13.14357267444941</v>
+        <v>16.43903459935455</v>
       </c>
       <c r="L18">
-        <v>4.406775612133998</v>
+        <v>9.402344586594126</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>15.58932679593574</v>
+        <v>19.64605993541402</v>
       </c>
       <c r="C19">
-        <v>8.040128358732957</v>
+        <v>4.999120936554288</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>4.66950718879088</v>
+        <v>9.348534112524559</v>
       </c>
       <c r="F19">
-        <v>76.15677907603148</v>
+        <v>66.4396091855792</v>
       </c>
       <c r="G19">
-        <v>2.153619729762841</v>
+        <v>3.798024788318097</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,13 +1244,13 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>13.1581045820501</v>
+        <v>13.56475854922062</v>
       </c>
       <c r="K19">
-        <v>13.09976045826546</v>
+        <v>16.43674363089375</v>
       </c>
       <c r="L19">
-        <v>4.389641591078688</v>
+        <v>9.409376589721955</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>15.83748284141266</v>
+        <v>19.6544546395411</v>
       </c>
       <c r="C20">
-        <v>8.207623950504415</v>
+        <v>5.07705519946107</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>4.772318112726674</v>
+        <v>9.326703763972461</v>
       </c>
       <c r="F20">
-        <v>77.37481999275539</v>
+        <v>66.81087846938823</v>
       </c>
       <c r="G20">
-        <v>2.149186135238861</v>
+        <v>3.796736978523118</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,13 +1291,13 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>13.30342085408801</v>
+        <v>13.60820038524678</v>
       </c>
       <c r="K20">
-        <v>13.29715173770574</v>
+        <v>16.44739423985032</v>
       </c>
       <c r="L20">
-        <v>4.466716587077546</v>
+        <v>9.3779151637035</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>16.67626801036112</v>
+        <v>19.69078749663807</v>
       </c>
       <c r="C21">
-        <v>8.757279708053737</v>
+        <v>5.32997650342589</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>5.1133635541939</v>
+        <v>9.2566947439331</v>
       </c>
       <c r="F21">
-        <v>81.4185033990035</v>
+        <v>68.04791068228442</v>
       </c>
       <c r="G21">
-        <v>2.134303182128845</v>
+        <v>3.792540447907998</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,13 +1338,13 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>13.7898526890197</v>
+        <v>13.75239248564761</v>
       </c>
       <c r="K21">
-        <v>14.1544753457097</v>
+        <v>16.48912748346167</v>
       </c>
       <c r="L21">
-        <v>4.725601906978398</v>
+        <v>9.275405604722788</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>17.26331979866144</v>
+        <v>19.72056777133771</v>
       </c>
       <c r="C22">
-        <v>9.107355134908397</v>
+        <v>5.488576992555295</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>5.333551043428976</v>
+        <v>9.213435993828291</v>
       </c>
       <c r="F22">
-        <v>84.02732516718808</v>
+        <v>68.84776917215345</v>
       </c>
       <c r="G22">
-        <v>2.124555943520058</v>
+        <v>3.789894349280019</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,13 +1385,13 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>14.10684491713473</v>
+        <v>13.84527505618006</v>
       </c>
       <c r="K22">
-        <v>14.75729440914831</v>
+        <v>16.5208103970729</v>
       </c>
       <c r="L22">
-        <v>4.895332268277221</v>
+        <v>9.210777000731268</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>16.93335839230522</v>
+        <v>19.70412301599158</v>
       </c>
       <c r="C23">
-        <v>8.921309030256875</v>
+        <v>5.404544297658513</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>5.216241610989955</v>
+        <v>9.236295048845337</v>
       </c>
       <c r="F23">
-        <v>82.63787042364864</v>
+        <v>68.42171298219424</v>
       </c>
       <c r="G23">
-        <v>2.129762178306129</v>
+        <v>3.79129782124379</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,13 +1432,13 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>13.93771288243274</v>
+        <v>13.79582835740281</v>
       </c>
       <c r="K23">
-        <v>14.43674916423743</v>
+        <v>16.50349913275878</v>
       </c>
       <c r="L23">
-        <v>4.804654417763564</v>
+        <v>9.245054861423837</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>15.8238367681703</v>
+        <v>19.65396301568417</v>
       </c>
       <c r="C24">
-        <v>8.198476653557945</v>
+        <v>5.072808875878238</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>4.766690059341107</v>
+        <v>9.327890045508099</v>
       </c>
       <c r="F24">
-        <v>77.30811931179585</v>
+        <v>66.79052691715349</v>
       </c>
       <c r="G24">
-        <v>2.14942948514897</v>
+        <v>3.796807207124222</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,13 +1479,13 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>13.29544854358931</v>
+        <v>13.60582131375577</v>
       </c>
       <c r="K24">
-        <v>13.28629668578631</v>
+        <v>16.44678692119874</v>
       </c>
       <c r="L24">
-        <v>4.462485681378586</v>
+        <v>9.379630810879858</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>14.64314427030729</v>
+        <v>19.62589781197778</v>
       </c>
       <c r="C25">
-        <v>7.375688644177515</v>
+        <v>4.686543501789891</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>4.266684888242579</v>
+        <v>9.437354291069479</v>
       </c>
       <c r="F25">
-        <v>71.40010154085509</v>
+        <v>64.99979549056559</v>
       </c>
       <c r="G25">
-        <v>2.170743509963222</v>
+        <v>3.803168280362561</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,13 +1526,13 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>12.59618021788659</v>
+        <v>13.3953004357837</v>
       </c>
       <c r="K25">
-        <v>12.34729104507378</v>
+        <v>16.40469173463232</v>
       </c>
       <c r="L25">
-        <v>4.092048612663215</v>
+        <v>9.535054860341567</v>
       </c>
       <c r="M25">
         <v>0</v>

--- a/Code/Results/Cases/Case_2_149/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_149/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>19.6276857286398</v>
+        <v>13.78857900987378</v>
       </c>
       <c r="C2">
-        <v>4.378135040345265</v>
+        <v>6.729143464859979</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>9.527082579122737</v>
+        <v>3.882230533384111</v>
       </c>
       <c r="F2">
-        <v>63.66074658758853</v>
+        <v>66.90609064941108</v>
       </c>
       <c r="G2">
-        <v>3.808216604563695</v>
+        <v>2.186701415270119</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,13 +445,13 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>13.23575416922598</v>
+        <v>12.07370986423806</v>
       </c>
       <c r="K2">
-        <v>16.39020577852813</v>
+        <v>11.66774114134317</v>
       </c>
       <c r="L2">
-        <v>9.658448768736228</v>
+        <v>3.814667508646827</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.64289180060902</v>
+        <v>13.2204120187249</v>
       </c>
       <c r="C3">
-        <v>4.154497746155063</v>
+        <v>6.264030447269551</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>9.593568983954647</v>
+        <v>3.630626789884791</v>
       </c>
       <c r="F3">
-        <v>62.74380268717346</v>
+        <v>63.77195896773529</v>
       </c>
       <c r="G3">
-        <v>3.811867872428851</v>
+        <v>2.197756440048789</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,13 +492,13 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>13.12492447764492</v>
+        <v>11.71432237328711</v>
       </c>
       <c r="K3">
-        <v>16.39070802306887</v>
+        <v>11.21577004833711</v>
       </c>
       <c r="L3">
-        <v>9.747725960464383</v>
+        <v>3.622341268711371</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>19.65911656871898</v>
+        <v>12.87788268361857</v>
       </c>
       <c r="C4">
-        <v>4.010131143323904</v>
+        <v>5.964724442849169</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>9.637186216941181</v>
+        <v>3.624209554067902</v>
       </c>
       <c r="F4">
-        <v>62.17729262793009</v>
+        <v>61.80582244338144</v>
       </c>
       <c r="G4">
-        <v>3.814224011442</v>
+        <v>2.204684430403513</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,13 +539,13 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>13.05558538531232</v>
+        <v>11.49096708078188</v>
       </c>
       <c r="K4">
-        <v>16.39610567403536</v>
+        <v>10.94311168572347</v>
       </c>
       <c r="L4">
-        <v>9.805351834431047</v>
+        <v>3.50169180541118</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>19.66745736894361</v>
+        <v>12.74005706672544</v>
       </c>
       <c r="C5">
-        <v>3.949557903537658</v>
+        <v>5.839246912747585</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>9.6556623688823</v>
+        <v>3.62385343631552</v>
       </c>
       <c r="F5">
-        <v>61.94573438778102</v>
+        <v>60.99455083610015</v>
       </c>
       <c r="G5">
-        <v>3.815212999188835</v>
+        <v>2.207545802996953</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,13 +586,13 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>13.02701201964488</v>
+        <v>11.39927222224878</v>
       </c>
       <c r="K5">
-        <v>16.39958427808953</v>
+        <v>10.83333749354469</v>
       </c>
       <c r="L5">
-        <v>9.829544300636321</v>
+        <v>3.451826053656045</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>19.66894667267013</v>
+        <v>12.71728266474747</v>
       </c>
       <c r="C6">
-        <v>3.939395531159591</v>
+        <v>5.818198062629255</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>9.658772680924523</v>
+        <v>3.623926787501878</v>
       </c>
       <c r="F6">
-        <v>61.90724727127409</v>
+        <v>60.85924837740573</v>
       </c>
       <c r="G6">
-        <v>3.815378965177891</v>
+        <v>2.208023317336189</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,13 +633,13 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>13.02224848641047</v>
+        <v>11.3840057275806</v>
       </c>
       <c r="K6">
-        <v>16.40023910791102</v>
+        <v>10.81519394022708</v>
       </c>
       <c r="L6">
-        <v>9.83360437939842</v>
+        <v>3.443502039243317</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>19.65922205968581</v>
+        <v>12.87601656603092</v>
       </c>
       <c r="C7">
-        <v>4.009321242252594</v>
+        <v>5.9630464827144</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>9.63743255248885</v>
+        <v>3.624195782717438</v>
       </c>
       <c r="F7">
-        <v>62.17417235173713</v>
+        <v>61.79492136670353</v>
       </c>
       <c r="G7">
-        <v>3.814237232347623</v>
+        <v>2.204722861680586</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,13 +680,13 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>13.05520130954516</v>
+        <v>11.48973318097457</v>
       </c>
       <c r="K7">
-        <v>16.39614741072797</v>
+        <v>10.94162565827525</v>
       </c>
       <c r="L7">
-        <v>9.805675225983444</v>
+        <v>3.501022204289401</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>19.63149768951435</v>
+        <v>13.59145465025436</v>
       </c>
       <c r="C8">
-        <v>4.302505179689088</v>
+        <v>6.571584844881804</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>9.549426589482289</v>
+        <v>3.789640151455696</v>
       </c>
       <c r="F8">
-        <v>63.34541890312283</v>
+        <v>65.83433400528533</v>
       </c>
       <c r="G8">
-        <v>3.80945191876569</v>
+        <v>2.190485930326889</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,13 +727,13 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>13.19781189568867</v>
+        <v>11.95034884906602</v>
       </c>
       <c r="K8">
-        <v>16.38932251437045</v>
+        <v>11.5109585383434</v>
       </c>
       <c r="L8">
-        <v>9.688650297579361</v>
+        <v>3.748849430071554</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>19.63186532613679</v>
+        <v>15.03871518291937</v>
       </c>
       <c r="C9">
-        <v>4.820422973466304</v>
+        <v>7.65894876734715</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>9.399060133361917</v>
+        <v>4.437441913671849</v>
       </c>
       <c r="F9">
-        <v>65.60663268066054</v>
+        <v>73.41241568500115</v>
       </c>
       <c r="G9">
-        <v>3.800969219412329</v>
+        <v>2.16353370089875</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,13 +774,13 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>13.46693700925602</v>
+        <v>12.83280595280386</v>
       </c>
       <c r="K9">
-        <v>16.41631216362402</v>
+        <v>12.66185182721888</v>
       </c>
       <c r="L9">
-        <v>9.481317479484261</v>
+        <v>4.217338341112467</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>19.6655333703286</v>
+        <v>16.1236810844328</v>
       </c>
       <c r="C10">
-        <v>5.165103295453145</v>
+        <v>8.397869739278518</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>9.302187641097161</v>
+        <v>4.889721581182801</v>
       </c>
       <c r="F10">
-        <v>67.23601401097842</v>
+        <v>78.76662967795218</v>
       </c>
       <c r="G10">
-        <v>3.795279137910111</v>
+        <v>2.144092870437236</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,13 +821,13 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>13.65784337454304</v>
+        <v>13.4701596768304</v>
       </c>
       <c r="K10">
-        <v>16.4606850580003</v>
+        <v>13.5371105382551</v>
       </c>
       <c r="L10">
-        <v>9.342302137310316</v>
+        <v>4.555282182931773</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>19.68808091465969</v>
+        <v>16.62168998394345</v>
       </c>
       <c r="C11">
-        <v>5.313977128199861</v>
+        <v>8.722209844831402</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>9.26108591880344</v>
+        <v>5.091434301228957</v>
       </c>
       <c r="F11">
-        <v>67.96823683775784</v>
+        <v>81.15851502654654</v>
       </c>
       <c r="G11">
-        <v>3.792806736634379</v>
+        <v>2.135268100311139</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,13 +868,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>13.74312723301751</v>
+        <v>13.75839602268012</v>
       </c>
       <c r="K11">
-        <v>16.48616574266204</v>
+        <v>14.09416613871113</v>
       </c>
       <c r="L11">
-        <v>9.281909790005262</v>
+        <v>4.708808331462131</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>19.69765499463402</v>
+        <v>16.81095403650088</v>
       </c>
       <c r="C12">
-        <v>5.36920371831941</v>
+        <v>8.843448366945481</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>9.245949703964179</v>
+        <v>5.167344086190506</v>
       </c>
       <c r="F12">
-        <v>68.24404888227681</v>
+        <v>82.05838817755263</v>
       </c>
       <c r="G12">
-        <v>3.79188706959654</v>
+        <v>2.131923410853213</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,13 +915,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>13.77519044755929</v>
+        <v>13.86737825804317</v>
       </c>
       <c r="K12">
-        <v>16.49657144091855</v>
+        <v>14.3027209413691</v>
       </c>
       <c r="L12">
-        <v>9.259446895803833</v>
+        <v>4.76702611429262</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>19.69554705698031</v>
+        <v>16.77016124205511</v>
       </c>
       <c r="C13">
-        <v>5.357360896267211</v>
+        <v>8.817405850652897</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>9.249190491648655</v>
+        <v>5.151014821322093</v>
       </c>
       <c r="F13">
-        <v>68.18471564557824</v>
+        <v>81.86483746272349</v>
       </c>
       <c r="G13">
-        <v>3.792084400792248</v>
+        <v>2.132643979121704</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,13 +962,13 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>13.76829549498865</v>
+        <v>13.84391292634796</v>
       </c>
       <c r="K13">
-        <v>16.49429681837564</v>
+        <v>14.25790775750359</v>
       </c>
       <c r="L13">
-        <v>9.264266654916348</v>
+        <v>4.754482354262088</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>19.68884784910206</v>
+        <v>16.63724682963807</v>
       </c>
       <c r="C14">
-        <v>5.318543719702393</v>
+        <v>8.732215205342857</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>9.25983206374519</v>
+        <v>5.097688297786235</v>
       </c>
       <c r="F14">
-        <v>67.99095838154913</v>
+        <v>81.23266299914704</v>
       </c>
       <c r="G14">
-        <v>3.792730743459069</v>
+        <v>2.134993024912793</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,13 +1009,13 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>13.74576978410549</v>
+        <v>13.76736487453246</v>
       </c>
       <c r="K14">
-        <v>16.48700669064821</v>
+        <v>14.11137072821266</v>
       </c>
       <c r="L14">
-        <v>9.280053626576171</v>
+        <v>4.713595636599307</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>19.68487913922442</v>
+        <v>16.55592340154266</v>
       </c>
       <c r="C15">
-        <v>5.294617247209209</v>
+        <v>8.679831113285323</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>9.266406136204841</v>
+        <v>5.064965850891464</v>
       </c>
       <c r="F15">
-        <v>67.87208069699646</v>
+        <v>80.84468725018426</v>
       </c>
       <c r="G15">
-        <v>3.793128802661481</v>
+        <v>2.136431318723314</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,13 +1056,13 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>13.73194170910407</v>
+        <v>13.72045795446474</v>
       </c>
       <c r="K15">
-        <v>16.48263966623682</v>
+        <v>14.02130768756942</v>
       </c>
       <c r="L15">
-        <v>9.289776437813229</v>
+        <v>4.688565401679877</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>19.66420503733618</v>
+        <v>16.09122670571072</v>
       </c>
       <c r="C16">
-        <v>5.155213750129187</v>
+        <v>8.376445382177037</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>9.304933554679694</v>
+        <v>4.876466729743957</v>
       </c>
       <c r="F16">
-        <v>67.18796576894087</v>
+        <v>78.60946467062105</v>
       </c>
       <c r="G16">
-        <v>3.79544304090858</v>
+        <v>2.144669504485959</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,13 +1103,13 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>13.65223782715024</v>
+        <v>13.45129473168699</v>
       </c>
       <c r="K16">
-        <v>16.45912600722216</v>
+        <v>13.50035977516179</v>
       </c>
       <c r="L16">
-        <v>9.346305945524778</v>
+        <v>4.545253831866825</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>19.65337189015269</v>
+        <v>15.80730142744637</v>
       </c>
       <c r="C17">
-        <v>5.067657465508748</v>
+        <v>8.187382982247897</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>9.32932966646058</v>
+        <v>4.759866531867989</v>
       </c>
       <c r="F17">
-        <v>66.76585638095338</v>
+        <v>77.22725358239052</v>
       </c>
       <c r="G17">
-        <v>3.796892395088126</v>
+        <v>2.149724425820301</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,13 +1150,13 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>13.60293702084276</v>
+        <v>13.2857854492483</v>
       </c>
       <c r="K17">
-        <v>16.44605432545878</v>
+        <v>13.27314339000124</v>
       </c>
       <c r="L17">
-        <v>9.381711914920116</v>
+        <v>4.457357886115484</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>19.64782197304162</v>
+        <v>15.64440873219762</v>
       </c>
       <c r="C18">
-        <v>5.016552043521306</v>
+        <v>8.077521036042636</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>9.343640743156943</v>
+        <v>4.692414618474939</v>
       </c>
       <c r="F18">
-        <v>66.52223388223604</v>
+        <v>76.42808665205973</v>
       </c>
       <c r="G18">
-        <v>3.797736954545504</v>
+        <v>2.152634048973756</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,13 +1197,13 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>13.57443407446567</v>
+        <v>13.19042312669458</v>
       </c>
       <c r="K18">
-        <v>16.43903459935455</v>
+        <v>13.14357267444943</v>
       </c>
       <c r="L18">
-        <v>9.402344586594126</v>
+        <v>4.406775612134056</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>19.64605993541402</v>
+        <v>15.58932679593585</v>
       </c>
       <c r="C19">
-        <v>4.999120936554288</v>
+        <v>8.040128358732918</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>9.348534112524559</v>
+        <v>4.669507188790806</v>
       </c>
       <c r="F19">
-        <v>66.4396091855792</v>
+        <v>76.15677907603127</v>
       </c>
       <c r="G19">
-        <v>3.798024788318097</v>
+        <v>2.15361972976268</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,13 +1244,13 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>13.56475854922062</v>
+        <v>13.15810458205004</v>
       </c>
       <c r="K19">
-        <v>16.43674363089375</v>
+        <v>13.09976045826551</v>
       </c>
       <c r="L19">
-        <v>9.409376589721955</v>
+        <v>4.389641591078652</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>19.6544546395411</v>
+        <v>15.83748284141271</v>
       </c>
       <c r="C20">
-        <v>5.07705519946107</v>
+        <v>8.207623950504161</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>9.326703763972461</v>
+        <v>4.772318112726591</v>
       </c>
       <c r="F20">
-        <v>66.81087846938823</v>
+        <v>77.37481999275498</v>
       </c>
       <c r="G20">
-        <v>3.796736978523118</v>
+        <v>2.149186135238576</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,13 +1291,13 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>13.60820038524678</v>
+        <v>13.30342085408792</v>
       </c>
       <c r="K20">
-        <v>16.44739423985032</v>
+        <v>13.29715173770578</v>
       </c>
       <c r="L20">
-        <v>9.3779151637035</v>
+        <v>4.466716587077356</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>19.69078749663807</v>
+        <v>16.6762680103611</v>
       </c>
       <c r="C21">
-        <v>5.32997650342589</v>
+        <v>8.75727970805368</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>9.2566947439331</v>
+        <v>5.113363554193787</v>
       </c>
       <c r="F21">
-        <v>68.04791068228442</v>
+        <v>81.41850339900316</v>
       </c>
       <c r="G21">
-        <v>3.792540447907998</v>
+        <v>2.13430318212859</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,13 +1338,13 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>13.75239248564761</v>
+        <v>13.78985268901958</v>
       </c>
       <c r="K21">
-        <v>16.48912748346167</v>
+        <v>14.15447534570972</v>
       </c>
       <c r="L21">
-        <v>9.275405604722788</v>
+        <v>4.725601906978423</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>19.72056777133771</v>
+        <v>17.26331979866148</v>
       </c>
       <c r="C22">
-        <v>5.488576992555295</v>
+        <v>9.107355134908621</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>9.213435993828291</v>
+        <v>5.333551043429112</v>
       </c>
       <c r="F22">
-        <v>68.84776917215345</v>
+        <v>84.02732516718858</v>
       </c>
       <c r="G22">
-        <v>3.789894349280019</v>
+        <v>2.124555943519681</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,13 +1385,13 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>13.84527505618006</v>
+        <v>14.10684491713473</v>
       </c>
       <c r="K22">
-        <v>16.5208103970729</v>
+        <v>14.75729440914839</v>
       </c>
       <c r="L22">
-        <v>9.210777000731268</v>
+        <v>4.895332268277348</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>19.70412301599158</v>
+        <v>16.93335839230516</v>
       </c>
       <c r="C23">
-        <v>5.404544297658513</v>
+        <v>8.921309030256767</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>9.236295048845337</v>
+        <v>5.216241610990112</v>
       </c>
       <c r="F23">
-        <v>68.42171298219424</v>
+        <v>82.63787042364916</v>
       </c>
       <c r="G23">
-        <v>3.79129782124379</v>
+        <v>2.129762178306288</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,13 +1432,13 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>13.79582835740281</v>
+        <v>13.9377128824329</v>
       </c>
       <c r="K23">
-        <v>16.50349913275878</v>
+        <v>14.43674916423741</v>
       </c>
       <c r="L23">
-        <v>9.245054861423837</v>
+        <v>4.804654417763627</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>19.65396301568417</v>
+        <v>15.82383676817033</v>
       </c>
       <c r="C24">
-        <v>5.072808875878238</v>
+        <v>8.198476653557915</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>9.327890045508099</v>
+        <v>4.76669005934103</v>
       </c>
       <c r="F24">
-        <v>66.79052691715349</v>
+        <v>77.30811931179522</v>
       </c>
       <c r="G24">
-        <v>3.796807207124222</v>
+        <v>2.149429485148832</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,13 +1479,13 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>13.60582131375577</v>
+        <v>13.29544854358915</v>
       </c>
       <c r="K24">
-        <v>16.44678692119874</v>
+        <v>13.28629668578635</v>
       </c>
       <c r="L24">
-        <v>9.379630810879858</v>
+        <v>4.462485681378606</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>19.62589781197778</v>
+        <v>14.64314427030721</v>
       </c>
       <c r="C25">
-        <v>4.686543501789891</v>
+        <v>7.375688644177392</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>9.437354291069479</v>
+        <v>4.266684888242501</v>
       </c>
       <c r="F25">
-        <v>64.99979549056559</v>
+        <v>71.40010154085492</v>
       </c>
       <c r="G25">
-        <v>3.803168280362561</v>
+        <v>2.170743509963508</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,13 +1526,13 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>13.3953004357837</v>
+        <v>12.59618021788645</v>
       </c>
       <c r="K25">
-        <v>16.40469173463232</v>
+        <v>12.34729104507368</v>
       </c>
       <c r="L25">
-        <v>9.535054860341567</v>
+        <v>4.092048612663182</v>
       </c>
       <c r="M25">
         <v>0</v>
